--- a/listagordo.xlsx
+++ b/listagordo.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,51 +1024,9 @@
         <v>True</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>ads46</v>
-      </c>
-      <c r="B47" t="str">
-        <v>2300</v>
-      </c>
-      <c r="C47" t="str">
-        <v>santi</v>
-      </c>
-      <c r="D47" t="str">
-        <v>False</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>1znq8913h</v>
-      </c>
-      <c r="B48" t="str">
-        <v>-1600</v>
-      </c>
-      <c r="C48" t="str">
-        <v>tomi</v>
-      </c>
-      <c r="D48" t="str">
-        <v>False</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>rodri</v>
-      </c>
-      <c r="B49" t="str">
-        <v>2400</v>
-      </c>
-      <c r="C49" t="str">
-        <v>se fue a boca el muy trolo</v>
-      </c>
-      <c r="D49" t="str">
-        <v>False</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D46"/>
   </ignoredErrors>
 </worksheet>
 </file>